--- a/data/Oscar RegaladoT3-2024.xlsx
+++ b/data/Oscar RegaladoT3-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -557,8 +561,6 @@
       <c r="F11" s="11" t="n">
         <v>24.63176709</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
@@ -1682,6 +1684,7 @@
         <v>0.01989889</v>
       </c>
     </row>
+    <row r="73"/>
     <row r="74">
       <c r="D74" s="6" t="inlineStr">
         <is>
@@ -1707,7 +1710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1720,6 +1723,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1727,6 +1732,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1734,6 +1740,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -2064,6 +2071,7 @@
         <v>0.00091068</v>
       </c>
     </row>
+    <row r="33"/>
     <row r="34">
       <c r="C34" s="6" t="inlineStr">
         <is>
@@ -2089,7 +2097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2102,6 +2110,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -2109,6 +2119,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -2116,6 +2127,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -2277,6 +2289,7 @@
         <v>2.34e-05</v>
       </c>
     </row>
+    <row r="20"/>
     <row r="21">
       <c r="C21" s="6" t="inlineStr">
         <is>
